--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2162.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2162.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.57696137902752</v>
+        <v>0.8652793169021606</v>
       </c>
       <c r="B1">
-        <v>3.293090115231557</v>
+        <v>1.802945256233215</v>
       </c>
       <c r="C1">
-        <v>3.309799162637657</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>0.9667810419709938</v>
+        <v>1.530941963195801</v>
       </c>
       <c r="E1">
-        <v>0.592310877582251</v>
+        <v>1.002193331718445</v>
       </c>
     </row>
   </sheetData>
